--- a/public/template_instrumen_old.xlsx
+++ b/public/template_instrumen_old.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\xampp72\htdocs\apm-smk\alur\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC5A7576-DAC6-466E-BA34-2A90BBE4C759}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F71CD2B-F059-49E6-BB5B-4D0AB25C5431}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="10845" xr2:uid="{F29D22C7-93BF-4282-9F88-0AB83B9FEE47}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="419">
   <si>
     <t>Komponen</t>
   </si>
@@ -1134,6 +1134,527 @@
     <t>Mendapatkan animo tinggi dari calon siswa</t>
   </si>
   <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Minat adalah dorongan atau keinginan dalam diri seseorang pada objek tertentu.
+2.	Bakat adalah potensi yang dimiliki oleh seseorang sebagai bawaan sejak lahir. 
+3.	Psikotes adalah tes untuk mengukur aspek-aspek individu secara psikis  melalui kecenderungan perilaku.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dokumen penjurusan siswa berdasarkan minat dan bakat.
+1.	Data hasil psikotes minat dan bakat
+2.	Data hasil penjurusan</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Prestasi akademis  adalah  pengetahuan yang dicapai atau keterampilan yang dikembangkan dalam mata pelajaran tertentu di sekolah.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dokumen penjurusan siswa berdasarkan minat dan bakat.
+1.	Hasil seleksi penjurusan berdasarkan prestasi akademis</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Kompetensi kejuruan adalah kemampuan menguasai mata pelajaran kejuruan .
+2.	Sertifikasi teknis adalah penetapan yang diberikan oleh suatu organisasi profesional terhadap seseorang untuk menunjukkan bahwa orang tersebut mampu untuk melakukan suatu pekerjaan atau tugas spesifik/teknis.  
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dokumen penjurusan siswa berdasarkan minat dan bakat.
+1.	Data guru kejuruan 
+2.	Data sertifikasi kompetensi guru kejuruan
+3.	Analisis data guru dan sertifikasi guru kejuruan</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Sertifikat LSP-P1 adalah sertifikat untuk skema .  
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dokumen penjurusan siswa berdasarkan minat dan bakat.
+1.	Data guru kejuruan 
+2.	Data sertifikasi kompetensi guru kejuruan
+3. Analisis data guru dan sertifikasi guru kejuruan</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Magang  adalah kegiatan untuk melatih, mempraktekkan ilmu teknis yang di miliki seseorang pada tempat yang sesuai dan ditentukan.
+2.	IDUKA adalah singkatan dari industri, dunia usaha dan dunia kerja.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dokumen penjurusan siswa berdasarkan minat dan bakat.
+1. Data guru magang di IDUKA</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Etos kerja adalah sikap yang muncul atas kehendak dan kesadaran sendiri yang didasari oleh sistem orientasi nilai budaya terhadap kerja.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait dokumen penjurusan siswa berdasarkan minat dan bakat.
+1.	Menelaah dokumen 
+2.	Melakukan observasi
+3. Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Variabel kompetensi kewirausahaan:
+1.	Tindakan inovatif
+2.	Bekerja keras
+3.	Motivasi yang kuat
+4.	Pantang menyerah dan selalu mencari solusi terbaik
+5.	Memiliki naluri kewirausahaan
+Petunjuk Telaah Dokumen:
+1.	Menelaah dokumen 
+2.	Melakukan observasi
+3.	Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Kompetensi supervisi adalah kemampuan kepala sekolah dalam merencanakan, melaksnakan, dan menindaklanjuti hasil pemantauan akademis.
+Petunjuk Telaah Dokumen:
+1.	Program supervisi
+2.	Hasil supervisi
+3. Laporan tindak lanjut hasil supervisi</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Laboran  adalah orang yang bekerja di laboratorium/ruang praktek.
+2.	Sertifikat industri adalah sertifikat yang diberikan oleh industri setelah seseorang dinyatakan lulus uji kompetensi yang diselenggarakan industri.
+Petunjuk Telaah Dokumen:
+1.	Data laboran
+2. Data sertifikat laboran</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Kurikulum industri adalah kurikulum yang terintegrasi dan disusun bersama dengan IDUKA. 
+Petunjuk Telaah Dokumen:
+1. Dokumen kurikulum berstandar industri </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	KKNI (Kerangka Kualifikasi Nasional Indonesia) adalah kerangka penjenjangan kualifikasi SDM yang menyandingkan, menyetarakan, dan mengintegrasikan sektor pendidikan dan pelatihan.
+2.	SKKNI (Standar Kompetensi Kerja Nasional Indonesia) adalah acuan standar kemampuan kerja yang meliputi aspek pengetahuan, ketrampilan, dan sikap kerja yang sesuai dengan aturan yang berlaku.
+Petunjuk Telaah Dokumen
+Lakukan telaah dokumen terkait 
+1.	Dokumen kurikulum skema KKNI/SKKNI </t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Alat praktek adalah alat yang  digunakan dalam pembelajaran  praktek di sekolah.
+2.	Rasio adalah perbandingan porsi  jumlah ketersediaan dan  kebutuhan.
+Petunjuk Telaah Dokumen:
+1.	Menelaah dokumen 
+2.	Melakukan observasi
+3. Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Berstandar industri adalah sesuai dengan spesifikasi yang dipersyaratkan industri .
+Petunjuk Telaah Dokumen:
+1.   Menelaah dokumen 
+2.	Melakukan observasi
+3. Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Finasial adalah sesuatu yang berhubungan dengan keuangan atau pembiayaan .
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.	Melakukan observasi
+3. Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Finansial adalah sesuatu yang berhubungan dengan keuangan atau pembiayaan .
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.	Melakukan observasi
+3. Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Pemerintah pusat adalah  penyelenggara pemerintah NKRI di pusat, yang dipimpin oleh Presiden dan Wakil Presiden dan dibantu oleh para menteri.
+2.	Pemerintah daerah adalah penyelenggara pemerintahan daerah menurut asas otonomi dan tugas pembantuan dengan prinsip otonomi seluas-luasnya dalam sistem dan prinsip Negara Kesatuan Republik Indonesia sebagaimana dimaksud dalam Undang-Undang Dasar 1945.
+3.	BOS adalah bantuan oprasional sekolah dari pemerintah pusat.
+4.	BOPD adalah bantuan oprasional sekolah dari pemerintah provinsi (untuk sekolah negeri).
+5.	BPMU adalah bantuan oprasional sekolah dari pemerintah provinsi (untuk sekolah swasta).
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.  Melakukan observasi
+3.  Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Komite sekolah  adalah badan mandiri yang mewadahi peran serta masyarakat dalam rangka meningkatkan mutu, pemerataan, dan efisiensi pengelolaan  endidikan di satuan  endidikan.
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.  Melakukan observasi
+3.  Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Aspek adalah pemunculan atau penginterpretasian gagasan, masalah, situasi, dsb sebagai pertimbangan yang dilihat dari sudut pandang tertentu.
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.  Melakukan observasi
+3.  Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Dinas Tenaga Kerja adalah dinas yang mengurusi hal ihwal ketenagakerjaan.
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.  Melakukan observasi
+3.  Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Mitra industri adalah industri yang memiliki hubungan kemitraan dalam satu atau beberapa aspek.
+Petunjuk Telaah Dokumen:
+1.  Menelaah dokumen 
+2.  Melakukan observasi
+3.  Melaksanakan wawancara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi 
+1.	Proses pembelajaran diarahkan kepada proses belajar, artinya siswa yang belajar. Fungsi guru adalah mengupayakan siswa belajar sehingga mencapai kompetensi yang dicantumkan dalam kompetensi dasar dan mengarah kepada berpikir tingkat tinggi (jika menggunakan taksonomi Bloom, Cognitive-4 atau C4, Cognitive-5 atau C5, dan Cognitive-6 atau C). 
+2.	Proses pembelajaran terdiri dari kegiatan pendahuluan, kegiatan inti dan penutup. Sesuai dengan prinsip kerucut Dale, siswa akan mencapai pemahaman lebih baik jika mencoba-coba sendiri, berdiskusi dengan teman dan yang tertinggi jika diberi kesempatan menjelaskan kepada orang lain. 
+3.	Kegiatan pendahuluan diawali dengan memotivasi siswa untuk mengikuti pelajaran dengan mengaitkan dengan kehidupan riil dan familiar yang dekat dengan siswa serta mengungkapkan pengetahuan awal siswa yang berhubungan dengan materi yang akan diajarkan.
+4.	 Kegiatan inti merupakan langkah-langkah kegiatan yang dilakukan oleh siswa dan guru dalam mendapatkan pengalaman belajar yang bermakna. 
+5.	Kegiatan penutup berupa pengambilan kesimpulan hasil pembelajaran dan refleksi dari hasil pembelajaran yang telah dilalui. 
+6.	Idealnya proses pembelajaran mengikuti sintaks seperti dirancang dalam RPP. Namun guru harus dapat membuat siswa termotivasi belajar dan menikmati proses pembelajaran. Oleh karena itu jika ternyata siswa tidak antusias belajar dan atau siswa sulit memahami materi ajar, maka guru harus segera mengubah sintaks bahkan strategi pembelajaran. Kejadian seperti itu dicatat dalam jurnal pembelajaran sebagai pertimbangan menyempurnakan RPP pada waktu selanjutnya. 
+7.	Jurnal /catatan harian guru berisi catatan kegiatan yang ditulis secara rinci tentang pelaksanaan pembelajaran. 
+8.	Dokumen supervisi kepala sekolah/madrasah berisi catatan hasil supervisi kepala sekolah/madrasah pada kegiatan pembelajaran.
+Petunjuk Telaah Dokumen 
+Lakukan telaah dokumen terkait kegiatan dan program guru dalam melaksanakan pembelajaran sesuai RPP dan deskripsikan hasil telaah yang mencakup: dokumen RPP, jurnal/catatan harian guru dan dokumen supervisi kepala sekolah/madrasah.
+</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Sarana pendidikan adalah semua fasilitas yang diperlukan dalam proses belajar mengajar, baik yang bergerak maupun yang tidak bergerak agar pencapaian tujuan pendidikan dan berjalan dengan lancar, teratur, efektif dan efisien. 
+2.	Prasarana pendidikan adalah fasilitas yang secara tidak langsung menunjang jalannya proses pendidikan, seperti : halaman, kebun, kolam, atau taman sekolah, dan sebagainya. 
+▪ Dapat mendukung kegiatan pembelajaran sesuai karakteristik setiap mata pelajaran yang ada. 
+▪ Memenuhi aturan keamanan 
+▪ Harus sesuai dengan karakteristik alamiah anak 
+▪ Harus didasarkan pada kebutuhan anak dan 
+▪ secara estetis harus menyenangkan.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen tentang:
+1.	Rencana Pelaksanaan Pembelajaran (RPP) terutama dalam hal penggunaan media dan sumber belajar 
+2.	dokumen tentang sarana dan prasarana yang bisa digunakan dalam pembelajaran 
+3.	tata tertib pemanfaatan sarana prasarana memuat beberapa anjuran dan larangan ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi: 
+a.	Penilaian adalah proses pengumpulan dan pengolahan informasi untuk mengukur pencapaian hasil belajar peserta didik. dalam rangka memperbaiki proses pembelajaran. 
+b.	Penilaian hasil belajar oleh pendidik bertujuan untuk memantau dan mengevaluasi proses, dan daya serap peserta didik
+Petunjuk Telaah Dokumen:
+1.	Menelaah dokumen RPP, Instrumen penilaian pengetahuan, sikap, keterampilan 
+2.	Melakukan observasi pelaksanaan penilaian proses dan penilaian hasil belajar
+3.	Menelaah jurnal/catatan harian guru untuk mengetahui kapan penilaian hasil belajar dilakukan. Apakah penilaian proses dilakukan dan dengan cara apa. 
+4.	Melihat kelengkapan dokumen penilaian, antara lain soal dan angket yang digunakan, nilai atau skor yang diperoleh. 
+5.	Menelaah dokumen lain yang memuat catatan penggunaan hasil penilaian dalam diskusi dengan guru lain, melihat bukti bahwa hasil penilaian telah digunakan untuk merevisi RPP dan sebagainya. 
+6.	Melakukan wawancara terhadap guru/guru pembimbing, dan siswa </t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Praktik kerja industri (Prakerin) adalah kegiatan pendidikan, pelatihan, dan pembelajaran di bidang usaha atau industri (IDUKA) yang relevan sesuai bidangnya. Dalam pelaksanaannya, prakerin dilakukan dengan prosedur tertentu dan mematuhi ketentuan yang diterapkan oleh IDUKA. 
+2.	Kualitas Prakerin yang dilaksanakan sekolah dinilai dari: 
+1) Relevansi kompetensi keahlian siswa dengan jenis IDUKA  lokasi prakerin; 
+2) Kesesuaian kompetensi keahlian siswa dengan job description (pembagian kerja) selama prakerin; 
+3) Kecukupan waktu prakerin; dan 
+4) Laporan dan hasil evaluasi prakeri. 
+3.	Kecukupan waktu prakerin siswa adalah selama 6 - 12 bulan di DUDI. 
+Petunjuk Telaah Dokumen :
+Lakukan telaah untuk dokumen:
+1.	Dokumen laporan prakerin siswa 
+2.	Daftar perusahaan/dudi mitra prakerin 
+3.	Dokumen MoU prakerin antara Sekolah dan Perusahaan/DUDI. 
+4.	Fotokopi sertifikat peserta prakerin 
+5.	Dokumen evaluasi dan rekomendasi hasil prakerin</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Praktik kerja industri (Prakerin) adalah kegiatan pendidikan, pelatihan, dan pembelajaran di bidang usaha atau industri (DUDI) yang relevan sesuai bidangnya. Dalam pelaksanaannya, prakerin dilakukan dengan prosedur tertentu dan mematuhi ketentuan yang diterapkan oleh DUDI. 
+2.	Kualitas Prakerin yang dilaksanakan sekolah dinilai dari: 
+1) Relevansi kompetensi keahlian siswa dengan jenis DU/DI lokasi prakerin; 
+2) Kesesuaian kompetensi keahlian siswa dengan job description (pembagian kerja) selama prakerin; 
+3) Kecukupan waktu prakerin; dan 
+4) Laporan dan hasil evaluasi prakeri. 
+3.	Kecukupan waktu prakerin siswa adalah selama 6 – 12  bulan di DUDI.
+Pembuktian Kinerja :
+Telaah dokumen
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen yang terkait dengan :
+1.	Dokumen laporan prakerin siswa 
+2.	Daftar perusahaan/dudi mitra prakerin 
+3.	Dokumen MoU prakerin antara Sekolah dan Perusahaan/DUDI. 
+4.	Fotokopi sertifikat peserta prakerin 
+5.	Dokumen evaluasi dan rekomendasi hasil prakerin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Pengelolaan kurikulum adalah upaya sekolah dalam mengembangkan, mengimplementasikan dan mengevaluasi pelaksanaan kurikulum tingkat satuan pendidikan di sekolahnya secara sistematik dan berkelanjutan, dengan melibatkan berbagai pemangku kepentingan (guru, siswa, orang tua, pengawas, dinas pendidikan, dunia usaha, organisasi masyarakat atau pihak lain yang terkait). 
+2.	Kurikulum Tingkat Satuan Pendidikan (KTSP) adalah kurikulum operasional yang disusun oleh dan dilaksanakan di masing-masing satuan pendidikan".
+3.	Prosedur pengembangan kurikulum dilakukan melalui tahapan (1) analisis konteks, (2) menyusun draf atau melakukan review dokumen dalam bentuk workshop, (3) penyelarasan dengan DUDI yang relevan, (4) penetapan oleh kepala sekolah, (5) pengesahan oleh Dinas Pendidikan Provinsi.
+Pembuktian Kinerja :
+1.	Menelaah dokumen berupa (1) bukti analisis konteks, (2) dokumen kurikulum tingkat satuan pendidikan, silabus, RPP, kalender akademik, program tahunan, program semester, dll. (3) notulen rapat/workshop pengembangan kurikulum dan hasil, (4) hasil evaluasi kurikulum, (5) laporan kegiatan, dll. 
+2.	Mengamati bukti-bukti yang menunjukkan bahwa pengelolaan kurikulum memiliki dampak terhadap peningkatan mutu/prestasi sekolah, misalnya ada peningkatan prestasi siswa pada bidang akademik dan non akademik, peningkatan kinerja guru, peningkatan mutu budaya sekolah, dll. 
+3.	Wawancara/FGD dengan guru, komite sekolah, dinas pendidikan, pengguna, dunia usaha, dll.
+Petunjuk Telaah Dokumen :
+Petunjuk Telaah Dokumen Lakukan telaah dokumen sebagai bukti adanya pengembangan kurikulum di sekolah. Deskripsikan hasil telaah yang mencakup perencanaan, pelaksanaan, dan evaluasi kurikulum. Dokumen laporan prakerin siswa 
+1.	Dokumen kurikulum secara utuh 
+2.	Dokumen hasil penyelarasan dengan DUDI 
+3.	Bukti keterlibatan DUDI dalam pengembangan kurikulum. 
+4.	Silabus 
+5.	RPP 
+6.	Program tahunan 
+7.	Program semesteran 
+8.	Kalender akademik 
+9.	Dokumen pengembangan kurikulum seperti notulen rapat, SK Tim, absensi kegiatan, dsb. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Pembelajaran
+2.	Bakat adalah 
+3.	Psikotes adalah 
+Pembuktian Kinerja :
+1.	Menelaah dokumen 
+2.	Melakukan observasi
+3.	Melaksanakan wawancara
+Petunjuk Telaah Dokumen :
+1.	</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Unit produksi merupakan suatu sarana pembelajaran dan berwirausaha bagi siswa dan guru serta memberi dukungan biaya operasional sekolah. Sarana pembelajaran yang dimaksud adalah tempat belajar bagi guru dan siswa untuk meningkatkan kemampuan pengetahuan, keterampilan dan pembentukan sikap kerja, karena dalam kegiatan unit produksi terdapat proses belajar secara langsung dalam menghadapi permasalahan kerja sesungguhnya. Makna unit produksi sebagai sarana berwirausaha karena guru dan siswa berlatih menjaga kelangsungan kegiatan unit produksi melalui pengembangan pemasaran dan menjaga kepercayaan konsumen. Makna sebagai penghasil dana masukan adalah kegiatan unit produksi menghasilkan produk atau jasa bernilai ekonomi, sehingga pengelola dan pelaksana mendapat imbalan jasa. Selain itu keuntungan dari hasil penjualan barang / jasa dapat digunakan sebagai biaya operasional sekolah. (Dir. PSMK : 2007) 
+2.	Unit produksi sekolah menengah kejuruan adalah suatu proses kegiatan usaha yang dilakukan sekolah / madrasah dan lingkungan dalam bentuk unit usaha secara berkesinambungan, bersifat akademis dan bisnis dengan memberdayakan warga sekolah / madrasah dan lingkungan dalam bentuk unit usaha produksi / jasa yang dikelola secara profesional. (Bambang Sartono: 2006)
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk melihat
+1) keterlibatan siswa dalam unit produksi, 
+2) adanya POS/SOP, 
+3) adanya pengurus dan uraian tugasnya, 
+4) omset dan keuntungan, 
+5) cakupan layanan, dan 
+6) unit produksi bagian dari pembelajaran.
+</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Kelas industri merupakan program pengadaan kelas khusus dalam lingkungan SMK. Kelas ini dikelola secara bersama antara sekolah dengan Industri. Pada kelas industri pembelajarannya lebih spesifik dengan mengarah kepada sebuah produk, di mana ruang praktiknya di-setting seperti training center-nya industri dengan pembelajaran sesuai standar industri. Tidak hanya kurikulum, para pengajar/guru diberi pelatihan oleh industri selama kurang lebih satu bulan sesuai standar yang diinginkan perusahaan. Saat pembelajaran di kelas, beberapa kali pihak industri turut memberikan materi kepada siswa. 
+2.	Kelas wirausaha merupakan program pembelajaran yang bertujuan untuk menanamkan nilai kewirausahaan melalui pembiasaan, penanaman sikap dan pemeliharaan perilaku wirausaha. Kelas kewirausahaan menerapkan pengintegrasian mata pelajaran kewirausahaan pada setiap muatan produktif. 
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Program kelas wirausaha dan atau kelas industri tiga tahun terakhir. 
+2.	Kurikulum kelas industri (Buku I, II, dan II). 
+3.	Pengelola kelas industri dan atau kelas wirausaha yang dibuktikan dengan surat keputusan dan uraian tugas. 
+4.	Dokumen sarana dan prasarana kelas industri atau kelas wirausaha. 
+5.	Bukti kerja sama dengan pihak luar sekolah dalam penyelenggaraan kelas khusus. 
+6.	Pelaksanaan pembelajaran dan penilaian di kelas wirausaha atau kelas industri. 
+7.	Bukti evaluasi penyelenggaraan kelas industri atau kelas wirausa</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Produk adalah hasil proses produksi yang dilakukan oleh produsen atau perusahaan yang nantinya akan dijual kepada konsumen yang membutuhkan.atau dapat juga dikatakan suatu barang/jasa yang memiliki nilai tambah atau memberikan kemanfaatan bagi penggunanya yang dihasilkan dari proses produksi.
+2.	Produk teaching factory adalah produk yang dihasilkan oleh sekolah melalui kegiatan teaching factory atau unit produksi masing-masing kompetensi keahlian yang ada di sekolah
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Rancangan design produk yang akan dihasilkan
+2.	Produk yang telah di hasilkan
+3.	Pengepakan produk</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	Pemesanan barang adalah proses permintaan yang dibuat oleh pihak pertama kepada pihak kedua untuk membuat produk atau memberikan jasa sesuai dengan kebutuhan pihak pertama
+2.	Pengepakan merupakan sistem yang terkoordinasi untuk menyiapkan barang menjadi siap untuk ditransportasikan, didistribusikan, disimpan, dijual, dan dipakai
+3.	Pemasaran adalah suatu kegiatan menyeluruh, terpadu, dan terencana, yang dilakukan oleh sebuah organisasi atau institusi dalam melakukan usaha agar mampu mengakomodir permintaan pasar dengan cara menciptakan produk bernilai jual, menentukan harga, mengkomunikasikan, menyampaikan, dan saling bertukar tawaran yang bernilai bagi konsumen, klien, mitra, dan masyarakat umum.
+4.	sekolah sudah memiliki produk yang telah di lakukan quality assurance oleh pihak IDUKA
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	rekap pesanan produk dari pihak lain
+2.	Labeling quality assurance dari IDUKA
+3.	Kumpulan Produk di Gudang sekolah
+4.	Dokumen pengiriman produk</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+1.	RPP yang lengkap yang memuat komponen Identitas sekolah dan identitas mapel, tujuan pembelajaran berdasarkan KD, Indikator pencapaian Kompetensi, materi pembelajaran, strategi pembelajaran yang digunakan untuk mencapai KD yang sesuai karakteristik peserta didik, media pembelajaran sebagai alat bantu proses pembelajaran (termasuk IT), sumber belajar yang relevan seperti buku dan lingkungan sekitar, 
+2.	tahapan pembelajaran(pendahuluan, inti dan penutup) serta penilaian hasil pembelajaran
+3.	Pembelajaran aktif antara lain dapat dilihat dari aktivitas KBM yang menempatkan siswa sebagai subyek dalam kegiatan pembelajaran, misalnya 5M (mengamati, mempertanyakan, melakukan pengumpulan data/informasi, menganalisis, dan mengomunikasikan hasil). 
+4.	Pembelajaran kreatif dan inovatif yaitu pembelajaran yang memfasilitasi siswa menjadi kreatif dan inovatif, antara lain dapat dilihat dari tugas yang harus diselesaikan siswa, misalnya merancang penyelidikan sederhana, melakukan wawancara ke masyarakat, melakukan tugas proyek, atau menghasilkan produk tertentu berdasarkan ide-ide siswa sendiri. 
+5.	Pengoptimalan lingkungan sekitar, antara lain dapat dilihat dari media atau sumber belajar yang digunakan, misalnya memanfaatkan kebun sekolah, memanfaatkan barang bekas atau bahan-bahan yang ada di sekitarnya, mewawancarai warga sekitar rumah, mengunjungi bengkel atau home industry dekat sekolah, dan lain-lain. 
+6.	Pemanfaatan TIK antara lain dapat dilihat dari aktivitas meminta siswa melakukan searching internet untuk menggali informasi, menggunakan video untuk kegiatan pendahuluan atau penutup, menggunakan software aplikasi dalam pengumpulan data, menggunakan power point dalam menguatkan materi, dan lain-lain
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Kelengkapan dokumen RPP 
+2.	Indikator 
+3.	Strategi/metode pembelajaran 
+4.	Tahapan pembelajaran 5
+5.	 Pemanfaatan Lingkungan 
+6.	Pemanfaatan TIK 7
+ Dokumen evaluasi dan refleksi</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Setiap guru mengembangkan profesionalismenya dengan melakukan evaluasi diri dan refleksi melalui bentuk/kegiatan antara lain pengembangan kompetensi guru adalah usaha perbaikan kinerja dari guru untuk mencapai kompetensi maksimal yang dapat dilakukan
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Dokumen hasil evaluasi diri 
+2.	Dokumen refleksi dan dokumen rencana tindak lanjut 
+3.	Dokumen bukti perbaikan kinerja yang dilakukan oleh guru 
+Dokumen bukti diskusi dan diseminasi dengan teman sejawat</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Segala kegiatan yang dilaksanakan seorang Guru yang bertujuan meningkatkan pengetahuan, keterampilan dan wawasan guru baik atas inisiatif sendiri atau difasilitasi oleh sekolah/madrasah
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Karya tulis yang dipublikasikan 
+2.	Karya tulis yang tidak dipublikasikan 
+3.	Bukti keikutsertaan kegiatan pengembangan profesi</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Kemampuan guru mengembangkan/memodifikasi strategi, model, metode, dan teknik pembelajaran aktif dan mendidik secara inovatif dan kreatif diwujudkan dalam bentuk kegiatan: 
+1. Mengembangkan strategi, model, dan teknik pembelajaran yang aktif dan mendidik. 
+2. Memodifikasi strategi, model, dan teknik pembelajaran yang aktif dan mendidik. 
+3. Mengimplementasikan hasil pengembangan/modifikasi strategi, model, metode pembelajaran dalam pembelajaran. 
+4. Menilai efektivitas hasil pengembangan/modifikasi strategi, model, dan teknik pembelajaran.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Hasil pengembangan/modifikasi strategi, model, dan teknik pembelajaran. 
+2.	Hasil evaluasi pengembangan/modifikasi strategi, model, metode pembelajaran 
+3. Bukti hasil penyebarluasan hasil pengembangan</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Program magang guru adalah untuk meningkatkan relevansi kompetensi keahlian guru produktif dengan perkembangan ilmu pengetahuan dan teknologi yang ada di dunia usaha dan di dunia  ndustry
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Program magang guru produktif. 
+2.	Daftar guru yang melaksanakan magang
+3.	Jurnal magang guru
+4.	Penilaian guru magang dari IDUKA
+5. Sertifikat magang</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+LSP-P1 Pendidikan adalah LSP yang didirikan oleh lembaga pendidikan dan atau pelatihan dengan tujuan utama melaksanakan sertifikasi kompetensi kerja terhadap peserta pendidikan/pelatihan berbasis kompetensi dilingkungannya dan /atau sumber daya manusia dari jejaring kerja lembaga induknya, sesuai ruang lingkup yang diberikan oleh BNSP
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Program pelatihan guru kejuruan dengan BNSP untuk LSP P1
+2.	Daftar guru yang melaksanakan pelatihan guru kejuruan dengan BNSP untuk LSP P1
+3.	Jadwal pelatihan guru kejuruan dengan BNSP untuk LSP P1
+4.	Penilaian pelatihan guru kejuruan dengan BNSP untuk LSP P1
+5. Sertifikat LSP P1</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Guru tamu merupakan guru yang didatangkan oleh sekolah dari luar sekolah (IDUKA atau organisasi penyedia guru tamu), dengan tujuan memberikan wawasan yang berbeda bagi siswa terkait mata pelajaran produktif. Wawasan ini biasanya terkait dengan kegiatan real di perusahaan tempat guru tamu bekerja sehari-hari.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Program mendatangkan guru tamu
+2.	Proses permohonan guru tamu
+3.	Jadwal guru tamu
+4.	Agenda pelaksanaan pembelajaran guru tamu
+5.	Daftar hadir guru tamu
+6.	Evaluasi program mendatangkan guru tamu yang disusun oleh sekolah dan guru tamu
+7. Tindak lanjut</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+instruktur merupakan guru yang didatangkan oleh sekolah dari luar sekolah (IDUKA), dengan tujuan memberikan bimbingan secara intensif bagi siswa terkait proses pelaksanaan pembelajaran mata pelajaran produktif. 
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk:
+1.	Program mendatangkan insruktur
+2.	Proses permohonan insruktur
+3.	Jadwal insruktur
+4.	Agenda pelaksanaan pembelajaran insruktur 
+5.	Daftar hadir insruktur
+6.	Evaluasi program mendatangkan guru tamu yang disusun oleh sekolah dan insruktur
+7. Tindak lanjut</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+IDUKA adalah kepanjangan dari Industri, Dunia Usaha dan Dunia Kerja
+Sertifikasi IDUKA merupakan bentuk uji kompetensi keahlian siswa setelah melaksanakan praktik kerja/magang oleh pihak IDUKA penyelenggara dan dibuktikan melalui sertifikat hasil praktik kerja.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Sertifikat Kompetensi Siswa 
+2.	Jadwal Praktik Kerja/Magang IDUKA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+KKNI (Kerangka Kualifikasi Nasional Indonesia) adalah kerangka penjenjangan kualifikasi sumber daya manusia Indonesia yang menyandingkan, menyetarakan, dan mengintegrasikan sektor pendidikan dengan sektor pelatihan dan pengalaman kerja dalam  suatu skema pengakuan kemampuan kerja yang disesuaikan dengan struktur di berbagai sektor pekerjaan. 
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Skema KKNI Level II/III SMK 
+2.	Sertifikat Kompetensi Siswa Berbasis LSP/BNSP
+3.	Daftar Siswa/Lulusan Tersertifikasi </t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Bekerja adalah melakukan kegiatan/pekerjaan paling sedikit satu jam berturut-turut selama seminggu yang lalu dengan maksud untuk memperoleh atau membantu memperoleh pendapatan atau keuntungan.
+Berwirausaha adalah suatu kegiatan usaha yang melibatkan kemampuan untuk melihat kesempatan-kesempatan usaha yang kemudian mengorganisisr, mengatur, mengambil resiko, dan mengembangkan usaha yang diciptakan tersebut guna meraih keuntungan.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Daftar rekap jumlah siswa tahun terakhir
+2.	Daftar rekap penelusuran keterserapan siswa satu tahun terakhir</t>
+  </si>
+  <si>
+    <t>PETUNJUK TEKNIS PENGISIAN INSTRUMEN: 
+Definisi :
+Gaji adalah suatu bentuk pembayaran secara berkala dari seorang majikan pada karyawannya yang dinyatakan dalam suatu kontrak kerja.
+UMR adalah singkatan dari Upah Minimum Regional yang merupakan suatu standar minimum yang digunakan oleh para pengusaha atau pelaku industri untuk memberikan upah kepada pekerja, pegawai ataupun buruh di dalam lingkungan usaha atau kerjanya.
+Petunjuk Telaah Dokumen :
+Lakukan telaah dokumen untuk :
+1.	Daftar rekap jumlah siswa tahun terakhir
+2.	Daftar rekap penelusuran keterserapan siswa satu tahun terakhir
+1.	Daftar gaji siswa yang bekerja</t>
+  </si>
+  <si>
+    <t>Bobot</t>
+  </si>
+  <si>
+    <t>Capaian 1</t>
+  </si>
+  <si>
+    <t>Capaian 2</t>
+  </si>
+  <si>
     <t>Capaian 5</t>
   </si>
   <si>
@@ -1143,13 +1664,7 @@
     <t>Capaian 3</t>
   </si>
   <si>
-    <t>Capaian 2</t>
-  </si>
-  <si>
-    <t>Capaian 1</t>
-  </si>
-  <si>
-    <t>Bobot</t>
+    <t>Petunjuk Pengisian</t>
   </si>
 </sst>
 </file>
@@ -1238,34 +1753,10 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1285,73 +1776,81 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1661,70 +2160,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39974C29-4F78-416A-8A0F-B191B27EFFC3}">
-  <dimension ref="A1:K52"/>
+  <dimension ref="A1:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozenSplit"/>
-      <selection pane="bottomLeft" activeCell="F51" sqref="F51"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozenSplit"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="63.5703125" defaultRowHeight="15.6" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="58.7109375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="63.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="70.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="83.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="97.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="10" width="94.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="90.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="63.5703125" style="1"/>
+    <col min="12" max="12" width="97.85546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="63.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="16" t="s">
+        <v>412</v>
+      </c>
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G1" s="17" t="s">
+        <v>415</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="17" t="s">
+        <v>417</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>414</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>413</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="12">
+      <c r="C2" s="9">
         <v>6</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1751,15 +2254,18 @@
       <c r="K2" s="2" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L2" s="2" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="150.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="12">
+      <c r="C3" s="9">
         <v>6</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -1786,15 +2292,18 @@
       <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L3" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="12">
+      <c r="C4" s="9">
         <v>4</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1821,15 +2330,18 @@
       <c r="K4" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L4" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="12">
+      <c r="C5" s="9">
         <v>4</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1856,15 +2368,18 @@
       <c r="K5" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L5" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="12">
+      <c r="C6" s="9">
         <v>4</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1891,15 +2406,18 @@
       <c r="K6" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L6" s="2" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="180" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="12">
+      <c r="C7" s="9">
         <v>4</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1926,15 +2444,18 @@
       <c r="K7" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L7" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="195" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="12">
+      <c r="C8" s="9">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1961,15 +2482,18 @@
       <c r="K8" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L8" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="12">
+      <c r="C9" s="9">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1996,15 +2520,18 @@
       <c r="K9" s="2" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L9" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="12">
+      <c r="C10" s="9">
         <v>4</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -2031,15 +2558,18 @@
       <c r="K10" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L10" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="105" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="12">
+      <c r="C11" s="9">
         <v>4</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -2066,15 +2596,18 @@
       <c r="K11" s="2" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L11" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="165" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C12" s="12">
+      <c r="C12" s="9">
         <v>4</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -2101,15 +2634,18 @@
       <c r="K12" s="2" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L12" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C13" s="12">
+      <c r="C13" s="9">
         <v>4</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -2136,15 +2672,18 @@
       <c r="K13" s="2" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L13" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C14" s="12">
+      <c r="C14" s="9">
         <v>4</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -2171,15 +2710,18 @@
       <c r="K14" s="2" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L14" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C15" s="12">
+      <c r="C15" s="9">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -2206,15 +2748,18 @@
       <c r="K15" s="2" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L15" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="9">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -2241,15 +2786,18 @@
       <c r="K16" s="2" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L16" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="225" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2276,15 +2824,18 @@
       <c r="K17" s="2" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L17" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <v>2</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2311,15 +2862,18 @@
       <c r="K18" s="2" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L18" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="135" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C19" s="12">
+      <c r="C19" s="9">
         <v>2</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2346,15 +2900,18 @@
       <c r="K19" s="2" t="s">
         <v>150</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L19" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C20" s="12">
+      <c r="C20" s="9">
         <v>2</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2381,15 +2938,18 @@
       <c r="K20" s="2" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L20" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C21" s="12">
+      <c r="C21" s="9">
         <v>2</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2416,1096 +2976,1173 @@
       <c r="K21" s="2" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="L21" s="2" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="409.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C22" s="9">
+      <c r="C22" s="6">
         <v>8</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="F22" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="I22" s="1" t="s">
+      <c r="I22" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="K22" s="2" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="L22" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="285" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="C23" s="9">
+      <c r="C23" s="6">
         <v>8</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="13" t="s">
         <v>170</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="F23" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="I23" s="1" t="s">
+      <c r="I23" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="2" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
+      <c r="L23" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="255" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="6">
         <v>8</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="F24" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I24" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="K24" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
+      <c r="L24" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="300" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C25" s="9">
+      <c r="C25" s="6">
         <v>8</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="F25" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I25" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="K25" s="2" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
+      <c r="L25" s="2" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C26" s="9">
+      <c r="C26" s="6">
         <v>8</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="D26" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="F26" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="I26" s="1" t="s">
+      <c r="I26" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="K26" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
+      <c r="L26" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="408" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C27" s="9">
+      <c r="C27" s="6">
         <v>4</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="F27" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="I27" s="1" t="s">
+      <c r="I27" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="K27" s="2" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
+      <c r="L27" s="2" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C28" s="9">
+      <c r="C28" s="6">
         <v>4</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="F28" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="I28" s="1" t="s">
+      <c r="I28" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="K28" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
+      <c r="L28" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C29" s="9">
+      <c r="C29" s="6">
         <v>4</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="F29" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="I29" s="1" t="s">
+      <c r="I29" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="K29" s="2" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
+      <c r="L29" s="2" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="330" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C30" s="9">
+      <c r="C30" s="6">
         <v>4</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="F30" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="I30" s="1" t="s">
+      <c r="I30" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="K30" s="2" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
+      <c r="L30" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C31" s="9">
+      <c r="C31" s="6">
         <v>4</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D31" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="F31" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="I31" s="1" t="s">
+      <c r="I31" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
+      <c r="L31" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="270" x14ac:dyDescent="0.25">
+      <c r="A32" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="C32" s="9">
+      <c r="C32" s="6">
         <v>4</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="E32" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="F32" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="I32" s="1" t="s">
+      <c r="I32" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="K32" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
+      <c r="L32" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C33" s="9">
+      <c r="C33" s="6">
         <v>4</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D33" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E33" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="F33" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="I33" s="1" t="s">
+      <c r="I33" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="J33" s="1" t="s">
+      <c r="J33" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="K33" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+      <c r="L33" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A34" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C34" s="9">
+      <c r="C34" s="6">
         <v>4</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D34" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E34" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="F34" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="I34" s="1" t="s">
+      <c r="I34" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="J34" s="1" t="s">
+      <c r="J34" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="K34" s="2" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
+      <c r="L34" s="2" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C35" s="9">
+      <c r="C35" s="6">
         <v>4</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="F35" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I35" s="1" t="s">
+      <c r="I35" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="J35" s="1" t="s">
+      <c r="J35" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="K35" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
+      <c r="L35" s="2" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C36" s="9">
+      <c r="C36" s="6">
         <v>4</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D36" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E36" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="F36" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="I36" s="1" t="s">
+      <c r="I36" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="J36" s="1" t="s">
+      <c r="J36" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="K36" s="2" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+      <c r="L36" s="2" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C37" s="9">
+      <c r="C37" s="6">
         <v>4</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="F37" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="I37" s="1" t="s">
+      <c r="I37" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J37" s="1" t="s">
+      <c r="J37" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="K37" s="2" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
+      <c r="L37" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C38" s="9">
+      <c r="C38" s="6">
         <v>4</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D38" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="E38" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="F38" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="I38" s="1" t="s">
+      <c r="I38" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="K38" s="2" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
+      <c r="L38" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="240" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C39" s="9">
+      <c r="C39" s="6">
         <v>4</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>302</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="F39" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="I39" s="1" t="s">
+      <c r="I39" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="2" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
+      <c r="L39" s="2" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="225" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="C40" s="9">
+      <c r="C40" s="6">
         <v>4</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="F40" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="I40" s="1" t="s">
+      <c r="I40" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="2" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="7" t="s">
+      <c r="L40" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" s="4" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="14" t="s">
         <v>167</v>
       </c>
-      <c r="B41" s="7" t="s">
+      <c r="B41" s="14" t="s">
         <v>300</v>
       </c>
-      <c r="C41" s="9">
+      <c r="C41" s="6">
         <v>4</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D41" s="14" t="s">
         <v>316</v>
       </c>
-      <c r="E41" s="7" t="s">
+      <c r="E41" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="F41" s="7" t="s">
+      <c r="F41" s="14" t="s">
         <v>315</v>
       </c>
-      <c r="G41" s="7">
+      <c r="G41" s="14">
         <v>0</v>
       </c>
-      <c r="H41" s="7">
+      <c r="H41" s="14">
         <v>0</v>
       </c>
-      <c r="I41" s="7">
+      <c r="I41" s="14">
         <v>0</v>
       </c>
-      <c r="J41" s="7">
+      <c r="J41" s="14">
         <v>0</v>
       </c>
-      <c r="K41" s="7">
+      <c r="K41" s="14">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
+      <c r="L41" s="14"/>
+    </row>
+    <row r="42" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A42" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="C42" s="8">
+      <c r="C42" s="5">
         <v>10</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="F42" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="I42" s="1" t="s">
+      <c r="I42" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="2" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
+      <c r="L42" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="C43" s="8">
+      <c r="C43" s="5">
         <v>10</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D43" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E43" s="2" t="s">
         <v>330</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="F43" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>331</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="2" t="s">
         <v>332</v>
       </c>
-      <c r="I43" s="1" t="s">
+      <c r="I43" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="2" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
+      <c r="L43" s="2" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A44" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C44" s="10">
+      <c r="C44" s="7">
         <v>5</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>342</v>
       </c>
-      <c r="I44" s="1" t="s">
+      <c r="I44" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="2" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
+      <c r="L44" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="195" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="C45" s="10">
+      <c r="C45" s="7">
         <v>5</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="2" t="s">
         <v>346</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="2" t="s">
         <v>349</v>
       </c>
-      <c r="I45" s="1" t="s">
+      <c r="I45" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="2" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
+      <c r="L45" s="2" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C46" s="10">
+      <c r="C46" s="7">
         <v>5</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>356</v>
       </c>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="G46" s="1">
+      <c r="G46" s="2">
         <v>0</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H46" s="2">
         <v>0</v>
       </c>
-      <c r="I46" s="1">
+      <c r="I46" s="2">
         <v>0</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="2">
         <v>0</v>
       </c>
-      <c r="K46" s="1">
+      <c r="K46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
+      <c r="L46" s="2"/>
+    </row>
+    <row r="47" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C47" s="10">
+      <c r="C47" s="7">
         <v>5</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="G47" s="1">
+      <c r="G47" s="2">
         <v>0</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H47" s="2">
         <v>0</v>
       </c>
-      <c r="I47" s="1">
+      <c r="I47" s="2">
         <v>0</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="2">
         <v>0</v>
       </c>
-      <c r="K47" s="1">
+      <c r="K47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
+      <c r="L47" s="2"/>
+    </row>
+    <row r="48" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C48" s="10">
+      <c r="C48" s="7">
         <v>5</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="G48" s="1">
+      <c r="G48" s="2">
         <v>0</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H48" s="2">
         <v>0</v>
       </c>
-      <c r="I48" s="1">
+      <c r="I48" s="2">
         <v>0</v>
       </c>
-      <c r="J48" s="1">
+      <c r="J48" s="2">
         <v>0</v>
       </c>
-      <c r="K48" s="1">
+      <c r="K48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
+      <c r="L48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="C49" s="10">
+      <c r="C49" s="7">
         <v>5</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="G49" s="1">
+      <c r="G49" s="2">
         <v>0</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H49" s="2">
         <v>0</v>
       </c>
-      <c r="I49" s="1">
+      <c r="I49" s="2">
         <v>0</v>
       </c>
-      <c r="J49" s="1">
+      <c r="J49" s="2">
         <v>0</v>
       </c>
-      <c r="K49" s="1">
+      <c r="K49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="8">
         <v>3</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="F50" s="2" t="s">
         <v>365</v>
       </c>
-      <c r="G50" s="1">
+      <c r="G50" s="2">
         <v>0</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H50" s="2">
         <v>0</v>
       </c>
-      <c r="I50" s="1">
+      <c r="I50" s="2">
         <v>0</v>
       </c>
-      <c r="J50" s="1">
+      <c r="J50" s="2">
         <v>0</v>
       </c>
-      <c r="K50" s="1">
+      <c r="K50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="8">
         <v>3</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="F51" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G51" s="1">
+      <c r="G51" s="2">
         <v>0</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H51" s="2">
         <v>0</v>
       </c>
-      <c r="I51" s="1">
+      <c r="I51" s="2">
         <v>0</v>
       </c>
-      <c r="J51" s="1">
+      <c r="J51" s="2">
         <v>0</v>
       </c>
-      <c r="K51" s="1">
+      <c r="K51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
+      <c r="L51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="2" t="s">
         <v>364</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="8">
         <v>3</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="F52" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="G52" s="1">
+      <c r="G52" s="2">
         <v>0</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H52" s="2">
         <v>0</v>
       </c>
-      <c r="I52" s="1">
+      <c r="I52" s="2">
         <v>0</v>
       </c>
-      <c r="J52" s="1">
+      <c r="J52" s="2">
         <v>0</v>
       </c>
-      <c r="K52" s="1">
+      <c r="K52" s="2">
         <v>0</v>
       </c>
+      <c r="L52" s="2"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
